--- a/Critical Activities.xlsx
+++ b/Critical Activities.xlsx
@@ -16,43 +16,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
-  <si>
-    <t>Develop WebService Core</t>
-  </si>
-  <si>
-    <t>Design Web UI</t>
-  </si>
-  <si>
-    <t>Develop Mobile UI</t>
-  </si>
-  <si>
-    <t>Design Data Base</t>
-  </si>
-  <si>
-    <t>Diagram</t>
-  </si>
-  <si>
-    <t>Activity</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Unitie</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Servicio Recurrente</t>
+  </si>
+  <si>
+    <t>Administracion</t>
+  </si>
+  <si>
+    <t>Leer URL's Enroladas</t>
+  </si>
+  <si>
+    <t>POST a URL</t>
+  </si>
+  <si>
+    <t>Arreglo de Resultados</t>
+  </si>
+  <si>
+    <t>Notificar</t>
+  </si>
+  <si>
+    <t>Mantenimiento de URL's</t>
+  </si>
+  <si>
+    <t>Consulta de Log</t>
+  </si>
+  <si>
+    <t>Actividades Críticas</t>
+  </si>
+  <si>
+    <t>Monitor Corporativo de Servicios</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,16 +60,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -77,12 +97,113 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,93 +498,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <f>SUM(B2:B6)</f>
-        <v>9</v>
-      </c>
+      <c r="D11" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
